--- a/Graph and Dp/dp_pattern.xlsx
+++ b/Graph and Dp/dp_pattern.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>Minimum Maximum path to reach a target</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock with Transaction Fee</t>
+  </si>
+  <si>
+    <t>r*</t>
   </si>
 </sst>
 </file>
@@ -764,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,14 +850,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -865,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -876,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -887,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1025,7 +1028,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1036,7 +1039,7 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1047,7 +1050,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -1058,7 +1061,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -1069,7 +1072,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1080,7 +1083,7 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1090,6 +1093,9 @@
       <c r="B34" t="s">
         <v>62</v>
       </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
@@ -1098,6 +1104,9 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
@@ -1111,6 +1120,9 @@
       <c r="B38" t="s">
         <v>67</v>
       </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
@@ -1119,6 +1131,9 @@
       <c r="B39" t="s">
         <v>71</v>
       </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
@@ -1127,6 +1142,9 @@
       <c r="B40" t="s">
         <v>73</v>
       </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
@@ -1135,6 +1153,9 @@
       <c r="B41" t="s">
         <v>75</v>
       </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
@@ -1143,6 +1164,9 @@
       <c r="B42" t="s">
         <v>69</v>
       </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
@@ -1151,6 +1175,9 @@
       <c r="B43" t="s">
         <v>77</v>
       </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
@@ -1159,6 +1186,9 @@
       <c r="B44" t="s">
         <v>81</v>
       </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
@@ -1166,6 +1196,9 @@
       </c>
       <c r="B45" t="s">
         <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.35">
